--- a/net/map_files/ctrlGrouped-1.0.0/tmp/st_net_proj_2030_2050.xlsx
+++ b/net/map_files/ctrlGrouped-1.0.0/tmp/st_net_proj_2030_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063f9107f230d788/idos_shit/shared_network_scenarios/versions/Roads_version 0.2/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4E97388F-2E98-4894-BC9B-DC51BF2D2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{4E97388F-2E98-4894-BC9B-DC51BF2D2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7568ACC-ECBC-436D-9E0D-5722322DC918}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6375" windowWidth="25440" windowHeight="15270" xr2:uid="{B13DAFC9-A582-44F0-9EA8-6D6BED4D0557}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B13DAFC9-A582-44F0-9EA8-6D6BED4D0557}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="194">
   <si>
     <t>Author</t>
   </si>
@@ -264,9 +264,6 @@
     <t>projnode2030.shp</t>
   </si>
   <si>
-    <t>projlist.xlsx</t>
-  </si>
-  <si>
     <t>projline2030.shp</t>
   </si>
   <si>
@@ -573,57 +570,9 @@
     <t>חיבור למזהה פרויקט שניתן על ידי אגף תקציבי פיתוח. אם 0 - ללא פרויקט.</t>
   </si>
   <si>
-    <t>שם פרויקט</t>
-  </si>
-  <si>
-    <t>מס' דרך</t>
-  </si>
-  <si>
-    <t>מק"מ</t>
-  </si>
-  <si>
-    <t>עד ק"מ</t>
-  </si>
-  <si>
-    <t>התחלה</t>
-  </si>
-  <si>
-    <t>סיום</t>
-  </si>
-  <si>
-    <t>סוג פרויקט (פעולה)</t>
-  </si>
-  <si>
-    <t>סוג דרך (היררכיה)</t>
-  </si>
-  <si>
-    <t>אורך</t>
-  </si>
-  <si>
-    <t>נתיבים</t>
-  </si>
-  <si>
-    <t>סוג העדפה</t>
-  </si>
-  <si>
-    <t>סטטוס</t>
-  </si>
-  <si>
-    <t>רשות אחראית</t>
-  </si>
-  <si>
-    <t>שנת יעד</t>
-  </si>
-  <si>
     <t>Real</t>
   </si>
   <si>
-    <t>אורך המקטע</t>
-  </si>
-  <si>
-    <t>מספר נתיבים כולל העדפה</t>
-  </si>
-  <si>
     <t>inter-urban,roads,roads map,interurban roads,freeways,interchanges,mileposts,project inventory,master plan,national</t>
   </si>
   <si>
@@ -660,22 +609,13 @@
     <t>האם מדובר במחלף</t>
   </si>
   <si>
-    <t>מק"ט מקור</t>
-  </si>
-  <si>
-    <t>מספר קטלוגי של הפרויקט במקור</t>
-  </si>
-  <si>
     <t>מק"ט אינוונטר</t>
   </si>
   <si>
-    <t>מספר קטלוגי של הפרויקט באינוונטר</t>
-  </si>
-  <si>
-    <t>Projbuilt –מתחיל ב10000
-Projline2030 – מתחיל ב20000
-Projnode2030- מתחיל ב25000
-Proj2050 – מתחיל ב30000</t>
+    <t>סוג הפעולה המבוצעת</t>
+  </si>
+  <si>
+    <t>היררכית מקטע הדרך</t>
   </si>
 </sst>
 </file>
@@ -745,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -769,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,22 +1028,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1122,7 +1059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1083,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1156,14 +1093,14 @@
       <c r="C6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1108,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -1179,15 +1116,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1219,54 +1156,54 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="C19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1213,7 @@
       <c r="C21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1286,35 +1223,35 @@
       <c r="C22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="C23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="C24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="C25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="C26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1324,116 +1261,111 @@
       <c r="C27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="C28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="C29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1441,20 +1373,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
@@ -1480,30 +1412,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50">
@@ -1513,7 +1445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2">
@@ -1523,7 +1455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2">
@@ -1533,7 +1465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2">
@@ -1543,117 +1475,117 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1661,13 +1593,13 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1675,13 +1607,13 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1689,196 +1621,196 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67">
         <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2">
         <v>0.5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>96</v>
       </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" t="s">
-        <v>97</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -1886,41 +1818,41 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -1928,20 +1860,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>12</v>
       </c>
@@ -1967,30 +1899,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90">
@@ -2000,7 +1932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2">
@@ -2010,7 +1942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2">
@@ -2020,7 +1952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2">
@@ -2030,81 +1962,81 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2112,165 +2044,165 @@
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102">
         <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103">
         <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
         <v>96</v>
       </c>
-      <c r="C106" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" t="s">
-        <v>97</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>41</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -2278,20 +2210,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -2317,28 +2249,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="2">
@@ -2348,7 +2280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="2">
@@ -2358,7 +2290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="2">
@@ -2368,7 +2300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="2">
@@ -2378,55 +2310,55 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H126" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2434,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H127" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -2448,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H128" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -2462,155 +2394,155 @@
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H129" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="2">
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="2">
         <v>3</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="2">
         <v>4</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="2">
         <v>5</v>
       </c>
       <c r="G134" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D135" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C136" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="2">
         <v>0</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="2">
         <v>0.5</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>10</v>
       </c>
@@ -2618,38 +2550,38 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -2657,20 +2589,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>12</v>
       </c>
@@ -2693,12 +2625,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>44</v>
@@ -2708,12 +2640,12 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>46</v>
@@ -2721,12 +2653,12 @@
       <c r="E153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>47</v>
@@ -2739,7 +2671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="2">
@@ -2749,7 +2681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="2">
@@ -2759,7 +2691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="2">
@@ -2769,7 +2701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="2">
@@ -2779,7 +2711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="2">
@@ -2789,7 +2721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="2">
@@ -2799,12 +2731,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C161" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>55</v>
@@ -2817,7 +2749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="2">
@@ -2827,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="2">
@@ -2837,7 +2769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="2">
@@ -2847,117 +2779,117 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="2">
         <v>0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F168" s="2">
         <v>0.5</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F169" s="2">
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="2">
         <v>0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E171" s="1"/>
       <c r="F171" s="2">
         <v>1</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>96</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C172" t="s">
-        <v>97</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C173"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>10</v>
       </c>
@@ -2965,38 +2897,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -3004,20 +2936,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -3040,12 +2972,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>44</v>
@@ -3055,12 +2987,12 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>46</v>
@@ -3068,12 +3000,12 @@
       <c r="E185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C186" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>47</v>
@@ -3086,7 +3018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="2">
@@ -3096,7 +3028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="2">
@@ -3106,7 +3038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="2">
@@ -3116,7 +3048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="2">
@@ -3126,7 +3058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="2">
@@ -3136,7 +3068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="2">
@@ -3146,12 +3078,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>55</v>
@@ -3164,7 +3096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="2">
@@ -3174,7 +3106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="2">
@@ -3184,7 +3116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="2">
@@ -3194,101 +3126,101 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C197" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C197" t="s">
-        <v>97</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="2">
         <v>0</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F200" s="2">
         <v>0.5</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F201" s="2">
         <v>1</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="2">
         <v>0</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E203" s="1"/>
       <c r="F203" s="2">
         <v>1</v>
       </c>
       <c r="G203" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C204" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -3299,7 +3231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C205"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -3310,52 +3242,52 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C206"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>40</v>
       </c>
@@ -3363,20 +3295,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>12</v>
       </c>
@@ -3399,558 +3331,233 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C217" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C218" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C219" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C220" t="s">
         <v>97</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C222" t="s">
+        <v>128</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
-        <v>206</v>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B223" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C223" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>40</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
-      <c r="B233" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C233" t="s">
-        <v>97</v>
-      </c>
-      <c r="D233" t="s">
-        <v>209</v>
-      </c>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-    </row>
-    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D234" t="s">
-        <v>211</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C235" t="s">
-        <v>97</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E235" s="1"/>
-      <c r="F235" s="2">
-        <v>1</v>
-      </c>
-      <c r="G235" t="s">
-        <v>49</v>
-      </c>
-      <c r="H235" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="2">
-        <v>2</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H236" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="2">
-        <v>3</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H237" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="2">
-        <v>4</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H238" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C239" t="s">
-        <v>98</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C240" t="s">
-        <v>98</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E240" s="1"/>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C241" t="s">
-        <v>98</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C242" t="s">
-        <v>98</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C243" t="s">
-        <v>98</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C244" t="s">
-        <v>98</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C245" t="s">
-        <v>97</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E245" s="1"/>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C246"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246">
-        <v>2</v>
-      </c>
-      <c r="G246" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247">
-        <v>3</v>
-      </c>
-      <c r="G247" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248">
-        <v>4</v>
-      </c>
-      <c r="G248" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C249" t="s">
-        <v>129</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E249" s="1"/>
-      <c r="F249" s="2">
-        <v>1</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="2">
-        <v>2</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="2">
-        <v>3</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="2">
-        <v>4</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="2">
-        <v>5</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D255" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D256" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>131</v>
-      </c>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="5"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="5"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="5"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B230"/>
+      <c r="C230"/>
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B234"/>
+      <c r="C234"/>
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B235"/>
+      <c r="C235"/>
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B236"/>
+      <c r="C236"/>
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B237"/>
+      <c r="C237"/>
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B238"/>
+      <c r="C238"/>
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B239"/>
+      <c r="C239"/>
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B240"/>
+      <c r="C240"/>
+      <c r="F240"/>
+    </row>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="2">
-        <v>0</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="2">
-        <v>1</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B260" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C260" t="s">
-        <v>98</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C260"/>
+      <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C261" t="s">
-        <v>98</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>136</v>
-      </c>
+    <row r="261" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C261"/>
+      <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C262" t="s">
-        <v>98</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>138</v>
-      </c>
+    <row r="262" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C262"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
